--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\Programming\Jupyter\Notebooks\Sentiment Analysis Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11B612D-715A-4EAF-A3BD-C6974691551F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6325CBD1-2D42-43EA-AC17-381707724673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{FC3D646B-A92A-4FA3-B0D8-6F1EFDFAB7DF}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FC3D646B-A92A-4FA3-B0D8-6F1EFDFAB7DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$101</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="192">
   <si>
     <t>No issues so far!</t>
   </si>
@@ -490,19 +493,144 @@
   </si>
   <si>
     <t>satisfied customer</t>
+  </si>
+  <si>
+    <t>New_Score</t>
+  </si>
+  <si>
+    <t>clogging</t>
+  </si>
+  <si>
+    <t>drain pipes</t>
+  </si>
+  <si>
+    <t>leaking</t>
+  </si>
+  <si>
+    <t>pipe quality</t>
+  </si>
+  <si>
+    <t>pipe rusting</t>
+  </si>
+  <si>
+    <t>arrived fit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>color fading</t>
+  </si>
+  <si>
+    <t>transport damage</t>
+  </si>
+  <si>
+    <t>installation leaks</t>
+  </si>
+  <si>
+    <t>pipes garden</t>
+  </si>
+  <si>
+    <t>product plumber</t>
+  </si>
+  <si>
+    <t>delivery performance</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>expectations</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>customer loyalty</t>
+  </si>
+  <si>
+    <t>water resistance</t>
+  </si>
+  <si>
+    <t>online purchase</t>
+  </si>
+  <si>
+    <t>happy customer</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>product preference</t>
+  </si>
+  <si>
+    <t>no complaints</t>
+  </si>
+  <si>
+    <t>good product</t>
+  </si>
+  <si>
+    <t>company viability</t>
+  </si>
+  <si>
+    <t>product material</t>
+  </si>
+  <si>
+    <t>material quality</t>
+  </si>
+  <si>
+    <t>purchase satisfaction</t>
+  </si>
+  <si>
+    <t>product usage</t>
+  </si>
+  <si>
+    <t>buying decision</t>
+  </si>
+  <si>
+    <t>money robbery</t>
+  </si>
+  <si>
+    <t>scammed</t>
+  </si>
+  <si>
+    <t>basic requirements</t>
+  </si>
+  <si>
+    <t>loyal customer</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>quality checks</t>
+  </si>
+  <si>
+    <t>New_Category</t>
+  </si>
+  <si>
+    <t>Same?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -525,13 +653,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,21 +978,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E99A9-30A5-4E83-80A8-D014C4630CDC}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -879,10 +1013,23 @@
       </c>
       <c r="F1" s="2" t="str">
         <f>_xlfn.CONCAT("ACCURACY: ",SUM(F2:F1000),"/",COUNTA(F2:F1000))</f>
+        <v>ACCURACY: 95/100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="2" t="str">
+        <f>_xlfn.CONCAT("ACCURACY: ",SUM(J2:J1000),"/",COUNTA(J2:J1000))</f>
         <v>ACCURACY: 96/100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,8 +1045,21 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" t="b">
+        <f>($G2=$D2)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -915,8 +1075,21 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I66" si="0">($G3=$D3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -930,10 +1103,23 @@
         <v>106</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -949,8 +1135,21 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -966,8 +1165,21 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -983,8 +1195,21 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1000,8 +1225,21 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>-5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1017,8 +1255,21 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>-4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1034,8 +1285,21 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1051,8 +1315,21 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1068,8 +1345,21 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1085,8 +1375,21 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>-5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1102,8 +1405,21 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1119,8 +1435,21 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1136,8 +1465,21 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1153,8 +1495,21 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1170,8 +1525,21 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1187,8 +1555,21 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1204,8 +1585,21 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1221,8 +1615,21 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1238,8 +1645,21 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1255,8 +1675,21 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1272,8 +1705,21 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1289,8 +1735,21 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1306,8 +1765,21 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1323,8 +1795,21 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="3">
+        <v>-4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1340,8 +1825,21 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="3">
+        <v>8</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1357,8 +1855,21 @@
       <c r="F29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1374,8 +1885,21 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="3">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1391,8 +1915,21 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1408,8 +1945,21 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>165</v>
+      </c>
+      <c r="I32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1425,8 +1975,21 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1442,8 +2005,21 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1459,8 +2035,21 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="3">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1476,8 +2065,21 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1493,8 +2095,21 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1510,8 +2125,21 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H38" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1527,8 +2155,21 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1544,8 +2185,21 @@
       <c r="F40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1561,8 +2215,21 @@
       <c r="F41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1578,8 +2245,21 @@
       <c r="F42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1595,8 +2275,21 @@
       <c r="F43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1612,8 +2305,21 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>170</v>
+      </c>
+      <c r="I44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1629,8 +2335,21 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="3">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1646,8 +2365,21 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1663,8 +2395,21 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1680,8 +2425,21 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1697,8 +2455,21 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>172</v>
+      </c>
+      <c r="I49" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1714,8 +2485,21 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="3">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1731,8 +2515,21 @@
       <c r="F51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1748,8 +2545,21 @@
       <c r="F52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="3">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1765,8 +2575,21 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1782,8 +2605,21 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>174</v>
+      </c>
+      <c r="I54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1799,8 +2635,21 @@
       <c r="F55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>175</v>
+      </c>
+      <c r="I55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1816,8 +2665,21 @@
       <c r="F56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="3">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>176</v>
+      </c>
+      <c r="I56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1833,8 +2695,21 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1850,8 +2725,21 @@
       <c r="F58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="3">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1867,8 +2755,21 @@
       <c r="F59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1884,8 +2785,21 @@
       <c r="F60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="3">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1901,8 +2815,21 @@
       <c r="F61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="3">
+        <v>-4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1918,8 +2845,21 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1935,8 +2875,21 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>142</v>
+      </c>
+      <c r="I63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1952,8 +2905,21 @@
       <c r="F64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="3">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>104</v>
+      </c>
+      <c r="I64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1969,8 +2935,21 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1986,8 +2965,21 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="3">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2003,8 +2995,21 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I67" t="b">
+        <f t="shared" ref="I67:I101" si="1">($G67=$D67)</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2020,8 +3025,21 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="3">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2037,8 +3055,21 @@
       <c r="F69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2054,8 +3085,21 @@
       <c r="F70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="3">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>109</v>
+      </c>
+      <c r="I70" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2071,8 +3115,21 @@
       <c r="F71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2088,8 +3145,21 @@
       <c r="F72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="3">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2105,8 +3175,21 @@
       <c r="F73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2122,8 +3205,21 @@
       <c r="F74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="3">
+        <v>7</v>
+      </c>
+      <c r="H74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2139,8 +3235,21 @@
       <c r="F75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="3">
+        <v>-5</v>
+      </c>
+      <c r="H75" t="s">
+        <v>113</v>
+      </c>
+      <c r="I75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2156,8 +3265,21 @@
       <c r="F76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="3">
+        <v>8</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2173,8 +3295,21 @@
       <c r="F77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>104</v>
+      </c>
+      <c r="I77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2190,8 +3325,21 @@
       <c r="F78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="3">
+        <v>8</v>
+      </c>
+      <c r="H78" t="s">
+        <v>182</v>
+      </c>
+      <c r="I78" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2207,8 +3355,21 @@
       <c r="F79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="3">
+        <v>-7</v>
+      </c>
+      <c r="H79" t="s">
+        <v>183</v>
+      </c>
+      <c r="I79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2224,8 +3385,21 @@
       <c r="F80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="3">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>114</v>
+      </c>
+      <c r="I80" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2241,8 +3415,21 @@
       <c r="F81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2258,8 +3445,21 @@
       <c r="F82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="3">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2275,8 +3475,21 @@
       <c r="F83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2292,8 +3505,21 @@
       <c r="F84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="3">
+        <v>5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2309,8 +3535,21 @@
       <c r="F85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>184</v>
+      </c>
+      <c r="I85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2326,8 +3565,21 @@
       <c r="F86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="3">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>144</v>
+      </c>
+      <c r="I86" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2343,8 +3595,21 @@
       <c r="F87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H87" t="s">
+        <v>185</v>
+      </c>
+      <c r="I87" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2360,8 +3625,21 @@
       <c r="F88" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="3">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>186</v>
+      </c>
+      <c r="I88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2377,8 +3655,21 @@
       <c r="F89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>187</v>
+      </c>
+      <c r="I89" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2394,8 +3685,21 @@
       <c r="F90" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="3">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2411,8 +3715,21 @@
       <c r="F91" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="3">
+        <v>-8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2428,8 +3745,21 @@
       <c r="F92" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>123</v>
+      </c>
+      <c r="I92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2445,8 +3775,21 @@
       <c r="F93" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>113</v>
+      </c>
+      <c r="I93" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2462,8 +3805,21 @@
       <c r="F94" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="3">
+        <v>7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>140</v>
+      </c>
+      <c r="I94" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2479,8 +3835,21 @@
       <c r="F95" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2496,8 +3865,21 @@
       <c r="F96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="3">
+        <v>9</v>
+      </c>
+      <c r="H96" t="s">
+        <v>104</v>
+      </c>
+      <c r="I96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2513,8 +3895,21 @@
       <c r="F97" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="3">
+        <v>-9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>104</v>
+      </c>
+      <c r="I97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2530,8 +3925,21 @@
       <c r="F98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="3">
+        <v>6</v>
+      </c>
+      <c r="H98" t="s">
+        <v>143</v>
+      </c>
+      <c r="I98" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2547,8 +3955,21 @@
       <c r="F99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="3">
+        <v>-6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>104</v>
+      </c>
+      <c r="I99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2564,8 +3985,21 @@
       <c r="F100" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="3">
+        <v>8</v>
+      </c>
+      <c r="H100" t="s">
+        <v>146</v>
+      </c>
+      <c r="I100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2579,6 +4013,19 @@
         <v>113</v>
       </c>
       <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>113</v>
+      </c>
+      <c r="I101" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J101" s="2">
         <v>1</v>
       </c>
     </row>
